--- a/test.xlsx
+++ b/test.xlsx
@@ -1,40 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rf-api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="para" sheetId="1" r:id="rId1"/>
+    <sheet name="case" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>Headers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>http://yqq.emoney.cn</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>/myhome/saveinfo</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>headers</t>
   </si>
   <si>
     <t>cookie</t>
   </si>
   <si>
-    <t>Request_body</t>
+    <t>request_body</t>
   </si>
   <si>
     <t>UserId</t>
@@ -80,24 +98,73 @@
   </si>
   <si>
     <t>东城区</t>
+  </si>
+  <si>
+    <t>judge_logic</t>
+  </si>
+  <si>
+    <t>judge_env</t>
+  </si>
+  <si>
+    <t>key_kind</t>
+  </si>
+  <si>
+    <t>case_Id</t>
+  </si>
+  <si>
+    <t>Judgement</t>
+  </si>
+  <si>
+    <t>26035</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,19 +187,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,126 +493,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>26035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>1921</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>1923</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10">
-        <v>26035</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>1921</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="K10">
-        <v>1234567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="F11">
-        <v>1923</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>46</v>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,170 +1,235 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rf-api\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="23415" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="para" sheetId="1" r:id="rId1"/>
     <sheet name="case" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+  <si>
+    <t>http://yqq.emoney.cn</t>
+  </si>
+  <si>
+    <t>/myhome/saveinfo</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>request_body</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>select_year</t>
+  </si>
+  <si>
+    <t>select_month</t>
+  </si>
+  <si>
+    <t>select_day</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>灵儿的守护</t>
+  </si>
+  <si>
+    <t>xumin2</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>东城区</t>
+  </si>
+  <si>
+    <t>judge_logic</t>
+  </si>
+  <si>
+    <t>judge_env</t>
+  </si>
+  <si>
+    <t>key_kind</t>
+  </si>
+  <si>
+    <t>26035</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>ErrMessage</t>
+  </si>
+  <si>
+    <t>HasError</t>
+  </si>
+  <si>
+    <t>HRESULT</t>
+  </si>
+  <si>
+    <t>ObjectValue</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>case_Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judgement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>host</t>
-  </si>
-  <si>
-    <t>http://yqq.emoney.cn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>/myhome/saveinfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-  </si>
-  <si>
-    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>protocol</t>
-  </si>
-  <si>
-    <t>http</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>headers</t>
-  </si>
-  <si>
-    <t>cookie</t>
-  </si>
-  <si>
-    <t>request_body</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>NickName</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>select_year</t>
-  </si>
-  <si>
-    <t>select_month</t>
-  </si>
-  <si>
-    <t>select_day</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>灵儿的守护</t>
-  </si>
-  <si>
-    <t>xumin2</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>东城区</t>
-  </si>
-  <si>
-    <t>judge_logic</t>
-  </si>
-  <si>
-    <t>judge_env</t>
-  </si>
-  <si>
-    <t>key_kind</t>
-  </si>
-  <si>
-    <t>case_Id</t>
-  </si>
-  <si>
-    <t>Judgement</t>
-  </si>
-  <si>
-    <t>26035</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>1923</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xumin1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xumin3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静安区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功，不成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,28 +252,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -250,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,10 +340,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,7 +374,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,102 +549,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>26035</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>1921</v>
@@ -600,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>1234567</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="F11">
         <v>1923</v>
       </c>
@@ -626,354 +684,475 @@
     <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>12345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>1978</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13">
+        <v>7654332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>12354</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>1978</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>3213213</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>